--- a/admin_assets/exel-formate/ADMS_TERMINATION_LETTER.xlsx
+++ b/admin_assets/exel-formate/ADMS_TERMINATION_LETTER.xlsx
@@ -16,33 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Enter FFI Employee ID: *</t>
-  </si>
-  <si>
-    <t>iyappan</t>
-  </si>
-  <si>
-    <t>iya111</t>
-  </si>
-  <si>
-    <t>Format 1</t>
-  </si>
-  <si>
-    <t>iya1112</t>
-  </si>
-  <si>
-    <t>iya1113</t>
-  </si>
-  <si>
-    <t>iya1114</t>
-  </si>
-  <si>
-    <t>iya111555555</t>
-  </si>
-  <si>
-    <t>iya34343434</t>
   </si>
   <si>
     <t>Date: *</t>
@@ -55,12 +31,6 @@
   </si>
   <si>
     <t>Termination Date : *</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>HELLO WELCOME</t>
   </si>
 </sst>
 </file>
@@ -416,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR7"/>
+  <dimension ref="A1:BQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,25 +474,23 @@
     <col min="78" max="78" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="2" customFormat="1">
+    <row r="1" spans="1:69" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -586,127 +554,6 @@
       <c r="BO1"/>
       <c r="BP1"/>
       <c r="BQ1"/>
-      <c r="BR1"/>
-    </row>
-    <row r="2" spans="1:70">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>435</v>
-      </c>
-      <c r="E2">
-        <v>435</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>435</v>
-      </c>
-      <c r="E3">
-        <v>435</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>435</v>
-      </c>
-      <c r="E4">
-        <v>435</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>435</v>
-      </c>
-      <c r="E5">
-        <v>435</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>435</v>
-      </c>
-      <c r="E6">
-        <v>435</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>435</v>
-      </c>
-      <c r="E7">
-        <v>435</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
